--- a/data/plots/Romania Total Generation 1M 2015-2023 spread.xlsx
+++ b/data/plots/Romania Total Generation 1M 2015-2023 spread.xlsx
@@ -1,37 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aleph365.sharepoint.com/sites/Alephintern/Shared Documents/Timur/Code/entsoe-py/data/plots/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_EB6241927499DEA5A7FBBA9FC6B9DB9588347EF8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17455A2-A54D-4890-82BC-4FF4FCC654FD}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Mean [GWh]</t>
+  </si>
+  <si>
+    <t>Max [GWh]</t>
+  </si>
+  <si>
+    <t>Min [GWh]</t>
+  </si>
+  <si>
+    <t>2020 [GWh]</t>
+  </si>
+  <si>
+    <t>2021 [GWh]</t>
+  </si>
+  <si>
+    <t>2022 [GWh]</t>
+  </si>
+  <si>
+    <t>2023 [GWh]</t>
+  </si>
+  <si>
+    <t>2024 [GWh]</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +97,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,314 +421,398 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Mean [GWh]</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Max [GWh]</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Min [GWh]</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2022 [GWh]</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2023 [GWh]</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2024 [GWh]</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5713.044138888889</v>
-      </c>
-      <c r="C2" t="n">
-        <v>6409.548</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5352.673</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5497.0025</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>5713.0441388888894</v>
+      </c>
+      <c r="C2">
+        <v>6409.5479999999998</v>
+      </c>
+      <c r="D2">
+        <v>5352.6729999999998</v>
+      </c>
+      <c r="E2">
+        <v>5352.6729999999998</v>
+      </c>
+      <c r="F2">
+        <v>5517.3585000000003</v>
+      </c>
+      <c r="G2">
+        <v>5497.0024999999996</v>
+      </c>
+      <c r="H2">
         <v>5519.04025</v>
       </c>
-      <c r="G2" t="n">
-        <v>5445.2645</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="I2">
+        <v>5445.2645000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>5149.05875</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5773.804</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4625.1765</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4625.1765</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5020.9525</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="B3">
+        <v>5149.0587500000001</v>
+      </c>
+      <c r="C3">
+        <v>5773.8040000000001</v>
+      </c>
+      <c r="D3">
+        <v>4625.1764999999996</v>
+      </c>
+      <c r="E3">
+        <v>4836.616</v>
+      </c>
+      <c r="F3">
+        <v>4903.2927499999996</v>
+      </c>
+      <c r="G3">
+        <v>4625.1764999999996</v>
+      </c>
+      <c r="H3">
+        <v>5020.9525000000003</v>
+      </c>
+      <c r="I3">
         <v>4963.40625</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>5318.446777777778</v>
-      </c>
-      <c r="C4" t="n">
-        <v>6028.265</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4771.80775</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4771.80775</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4923.329</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4865.411</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B4">
+        <v>5318.4467777777782</v>
+      </c>
+      <c r="C4">
+        <v>6028.2650000000003</v>
+      </c>
+      <c r="D4">
+        <v>4771.8077499999999</v>
+      </c>
+      <c r="E4">
+        <v>5021.2430000000004</v>
+      </c>
+      <c r="F4">
+        <v>5185.6352500000003</v>
+      </c>
+      <c r="G4">
+        <v>4771.8077499999999</v>
+      </c>
+      <c r="H4">
+        <v>4923.3289999999997</v>
+      </c>
+      <c r="I4">
+        <v>4865.4110000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>4818.795194444444</v>
       </c>
-      <c r="C5" t="n">
-        <v>5425.306</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3987.271</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4566.523</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5100.128</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="C5">
+        <v>5425.3059999999996</v>
+      </c>
+      <c r="D5">
+        <v>3987.2710000000002</v>
+      </c>
+      <c r="E5">
+        <v>3987.2710000000002</v>
+      </c>
+      <c r="F5">
+        <v>4835.1977500000003</v>
+      </c>
+      <c r="G5">
+        <v>4566.5230000000001</v>
+      </c>
+      <c r="H5">
+        <v>5100.1279999999997</v>
+      </c>
+      <c r="I5">
         <v>3921.509</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4578.46025</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4991.932</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3895.148</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B6">
+        <v>4578.4602500000001</v>
+      </c>
+      <c r="C6">
+        <v>4991.9319999999998</v>
+      </c>
+      <c r="D6">
+        <v>3895.1480000000001</v>
+      </c>
+      <c r="E6">
+        <v>3895.1480000000001</v>
+      </c>
+      <c r="F6">
+        <v>4915.6989999999996</v>
+      </c>
+      <c r="G6">
         <v>4549.576</v>
       </c>
-      <c r="F6" t="n">
-        <v>4507.80425</v>
-      </c>
-      <c r="G6" t="n">
-        <v>3548.729</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="H6">
+        <v>4507.8042500000001</v>
+      </c>
+      <c r="I6">
+        <v>3548.7289999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>4679.52325</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5099.597</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4110.304</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4271.3815</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7">
+        <v>4679.5232500000002</v>
+      </c>
+      <c r="C7">
+        <v>5099.5969999999998</v>
+      </c>
+      <c r="D7">
+        <v>4110.3040000000001</v>
+      </c>
+      <c r="E7">
+        <v>4110.3040000000001</v>
+      </c>
+      <c r="F7">
+        <v>5020.4317499999997</v>
+      </c>
+      <c r="G7">
+        <v>4271.3815000000004</v>
+      </c>
+      <c r="H7">
         <v>4420.75</v>
       </c>
-      <c r="G7" t="n">
-        <v>3523.33825</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="I7">
+        <v>3523.3382499999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>4927.409555555556</v>
-      </c>
-      <c r="C8" t="n">
-        <v>5526.628</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4524.137</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4524.137</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4560.8405</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="B8">
+        <v>4927.4095555555559</v>
+      </c>
+      <c r="C8">
+        <v>5526.6279999999997</v>
+      </c>
+      <c r="D8">
+        <v>4524.1369999999997</v>
+      </c>
+      <c r="E8">
+        <v>4562.027</v>
+      </c>
+      <c r="F8">
+        <v>4922.9565000000002</v>
+      </c>
+      <c r="G8">
+        <v>4524.1369999999997</v>
+      </c>
+      <c r="H8">
+        <v>4560.8405000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>4714.530111111111</v>
-      </c>
-      <c r="C9" t="n">
-        <v>5294.022</v>
-      </c>
-      <c r="D9" t="n">
-        <v>4186.70575</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4186.70575</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4264.278</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="B9">
+        <v>4714.5301111111112</v>
+      </c>
+      <c r="C9">
+        <v>5294.0219999999999</v>
+      </c>
+      <c r="D9">
+        <v>4186.7057500000001</v>
+      </c>
+      <c r="E9">
+        <v>4624.7120000000004</v>
+      </c>
+      <c r="F9">
+        <v>4407.9162500000002</v>
+      </c>
+      <c r="G9">
+        <v>4186.7057500000001</v>
+      </c>
+      <c r="H9">
+        <v>4264.2780000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>4504.406888888889</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5073.934</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4103.12175</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4294.2235</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4103.12175</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="B10">
+        <v>4504.4068888888887</v>
+      </c>
+      <c r="C10">
+        <v>5073.9340000000002</v>
+      </c>
+      <c r="D10">
+        <v>4103.1217500000002</v>
+      </c>
+      <c r="E10">
+        <v>4438.4920000000002</v>
+      </c>
+      <c r="F10">
+        <v>4237.1017499999998</v>
+      </c>
+      <c r="G10">
+        <v>4294.2235000000001</v>
+      </c>
+      <c r="H10">
+        <v>4103.1217500000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>4814.266972222222</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>4814.2669722222217</v>
+      </c>
+      <c r="C11">
         <v>5557.55</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>4271.1295</v>
       </c>
-      <c r="E11" t="n">
-        <v>4331.55275</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11">
+        <v>4433.6760000000004</v>
+      </c>
+      <c r="F11">
+        <v>4523.9555</v>
+      </c>
+      <c r="G11">
+        <v>4331.5527499999998</v>
+      </c>
+      <c r="H11">
         <v>4271.1295</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>5083.099166666667</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5802.132</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4573.9</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4647.61575</v>
-      </c>
-      <c r="F12" t="n">
-        <v>4643.18475</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="B12">
+        <v>5083.0991666666669</v>
+      </c>
+      <c r="C12">
+        <v>5802.1319999999996</v>
+      </c>
+      <c r="D12">
+        <v>4573.8999999999996</v>
+      </c>
+      <c r="E12">
+        <v>4784.08</v>
+      </c>
+      <c r="F12">
+        <v>4573.8999999999996</v>
+      </c>
+      <c r="G12">
+        <v>4647.6157499999999</v>
+      </c>
+      <c r="H12">
+        <v>4643.1847500000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>5514.61225</v>
-      </c>
-      <c r="C13" t="n">
-        <v>6357.949</v>
-      </c>
-      <c r="D13" t="n">
-        <v>4912.0725</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4912.0725</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5278.73275</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="B13">
+        <v>5514.6122500000001</v>
+      </c>
+      <c r="C13">
+        <v>6357.9489999999996</v>
+      </c>
+      <c r="D13">
+        <v>4912.0725000000002</v>
+      </c>
+      <c r="E13">
+        <v>5358.0609999999997</v>
+      </c>
+      <c r="F13">
+        <v>5254.6450000000004</v>
+      </c>
+      <c r="G13">
+        <v>4912.0725000000002</v>
+      </c>
+      <c r="H13">
+        <v>5278.7327500000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>55404.303</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:H14" si="0">SUM(F2:F13)</f>
+        <v>58298.09</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>55177.774500000007</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>56613.291250000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -735,6 +820,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007ACFDA0F9C500A4CA64D13651EE6D8C6" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="46d2fcf8cfa8f1b334adb1a7bbdf05bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0124169-321d-47a3-b4be-efa241e9e46c" xmlns:ns3="822ec4f5-ecd0-43b5-ad12-2130ec4491c9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a4245b2b5389c2ac9d79774fb04f28d" ns2:_="" ns3:_="">
     <xsd:import namespace="e0124169-321d-47a3-b4be-efa241e9e46c"/>
@@ -957,19 +1051,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{863BE2D7-B7E1-4430-A553-EC6429658700}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88DE83E7-8410-4CE0-B90B-0689F0048D03}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64208A98-B557-4020-A04D-DD816191923E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6555D9FC-93FE-4DF8-9358-9AAF98246435}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e0124169-321d-47a3-b4be-efa241e9e46c"/>
+    <ds:schemaRef ds:uri="822ec4f5-ecd0-43b5-ad12-2130ec4491c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>